--- a/tools/google/google-saif.xlsx
+++ b/tools/google/google-saif.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/google/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF966B-C8E8-1244-B237-A2105A0F6DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8F6A2-C9C9-7547-9519-FB9E9823C855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24780" yWindow="-50540" windowWidth="28480" windowHeight="50380" activeTab="1" xr2:uid="{3A4D1E3D-208D-FC41-8B10-0461585FA0CF}"/>
+    <workbookView xWindow="-24780" yWindow="-25260" windowWidth="28480" windowHeight="25100" activeTab="1" xr2:uid="{3A4D1E3D-208D-FC41-8B10-0461585FA0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -580,6 +580,39 @@
   </si>
   <si>
     <t>1:GSC-11,1:GSC-20,1:GSC-21,1:GSC-22,1:GSC-23</t>
+  </si>
+  <si>
+    <t>1:UTD,1:ISD</t>
+  </si>
+  <si>
+    <t>1:DP</t>
+  </si>
+  <si>
+    <t>1:SDD</t>
+  </si>
+  <si>
+    <t>1:EDH,1:SDD</t>
+  </si>
+  <si>
+    <t>1:DP,1:MST,1:MXF</t>
+  </si>
+  <si>
+    <t>1:DP,1:MST</t>
+  </si>
+  <si>
+    <t>1:DP,1:MST,1:MXF,1:MDT</t>
+  </si>
+  <si>
+    <t>1:DMS,1:MRE</t>
+  </si>
+  <si>
+    <t>1:IIC</t>
+  </si>
+  <si>
+    <t>1:PIJ,1:MEV,1:SDD,1:ISD,1:IMO</t>
+  </si>
+  <si>
+    <t>1:PIJ,1:RA</t>
   </si>
 </sst>
 </file>
@@ -670,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,6 +712,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1205,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1F21E5-B238-794E-BA95-4C2814A8EE37}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="211" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1218,9 +1252,10 @@
     <col min="4" max="4" width="193.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1239,8 +1274,11 @@
       <c r="F1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1259,8 +1297,11 @@
       <c r="F2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1279,8 +1320,11 @@
       <c r="F3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1299,8 +1343,11 @@
       <c r="F4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1319,8 +1366,11 @@
       <c r="F5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1339,8 +1389,11 @@
       <c r="F6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1359,8 +1412,11 @@
       <c r="F7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1379,8 +1435,11 @@
       <c r="F8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1399,8 +1458,11 @@
       <c r="F9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1419,8 +1481,11 @@
       <c r="F10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1439,8 +1504,11 @@
       <c r="F11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -1459,8 +1527,11 @@
       <c r="F12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1478,6 +1549,9 @@
       </c>
       <c r="F13" t="s">
         <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1965,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="194" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
